--- a/006-LSM6DSV 「Blueberry」/Old_Version/PickAndPlace_LSM6DSV.xlsx
+++ b/006-LSM6DSV 「Blueberry」/Old_Version/PickAndPlace_LSM6DSV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B248E9D1-D0D0-4ADD-ACCF-1A05FC8FE573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFA9B5-CA9F-4B35-9049-396B6DE85D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="3972" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PickAndPlace_LSM6DSV_2023-12-04" sheetId="1" r:id="rId1"/>
@@ -413,9 +413,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
@@ -555,6 +552,10 @@
   </si>
   <si>
     <t>18.034mm</t>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -940,11 +941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="20" customWidth="1"/>
   </cols>
@@ -2055,28 +2056,28 @@
         <v>131</v>
       </c>
       <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
         <v>132</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
         <v>84</v>
       </c>
       <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
         <v>134</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>135</v>
-      </c>
-      <c r="I27" t="s">
-        <v>136</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2091,36 +2092,36 @@
         <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
         <v>137</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
         <v>139</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" t="s">
-        <v>141</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2140,10 +2141,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -2152,19 +2153,19 @@
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
         <v>84</v>
       </c>
       <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
         <v>143</v>
       </c>
-      <c r="H29" t="s">
-        <v>144</v>
-      </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2184,31 +2185,31 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>147</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>148</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
         <v>149</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>148</v>
-      </c>
-      <c r="G30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" t="s">
-        <v>149</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2228,31 +2229,31 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
         <v>151</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" t="s">
-        <v>154</v>
-      </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2267,36 +2268,36 @@
         <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" t="s">
         <v>156</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>157</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
         <v>84</v>
       </c>
       <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" t="s">
         <v>159</v>
       </c>
-      <c r="H32" t="s">
-        <v>160</v>
-      </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2311,12 +2312,12 @@
         <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
@@ -2325,22 +2326,22 @@
         <v>59</v>
       </c>
       <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" t="s">
         <v>164</v>
-      </c>
-      <c r="F33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" t="s">
-        <v>165</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2360,31 +2361,31 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
         <v>166</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>168</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
         <v>170</v>
       </c>
-      <c r="F34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>171</v>
-      </c>
-      <c r="I34" t="s">
-        <v>172</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -2399,36 +2400,36 @@
         <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
         <v>173</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>174</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
         <v>175</v>
       </c>
-      <c r="D35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>176</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
       </c>
       <c r="J35">
         <v>14</v>
@@ -2443,12 +2444,12 @@
         <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
@@ -2457,22 +2458,22 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" t="s">
         <v>164</v>
-      </c>
-      <c r="F36" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" t="s">
-        <v>165</v>
       </c>
       <c r="J36">
         <v>2</v>
